--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8400"/>
+    <workbookView xWindow="4995" yWindow="3375" windowWidth="15060" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="objectRepository" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Find By method</t>
   </si>
@@ -28,91 +29,104 @@
     <t>find by name</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>find by id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>find by linktext</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>CreateUserButton</t>
+  </si>
+  <si>
+    <t>find by partial linktext</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>find by xpath</t>
+  </si>
+  <si>
+    <t>//span[@class='userNameSpan' and contains(text(),'Dowd, Roy (user)')]</t>
+  </si>
+  <si>
+    <t>userDataLightBox_firstNameField</t>
+  </si>
+  <si>
+    <t>logoutButton</t>
+  </si>
+  <si>
+    <t>closeUserDataLightBoxBtn</t>
+  </si>
+  <si>
+    <t>switchtowind</t>
+  </si>
+  <si>
+    <t>html/body/a</t>
+  </si>
+  <si>
+    <t>logoutLink</t>
+  </si>
+  <si>
+    <t>username in list</t>
+  </si>
+  <si>
+    <t>firstname text box</t>
+  </si>
+  <si>
+    <t>close pop up button</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>drag drop test</t>
+  </si>
+  <si>
+    <t>column-b</t>
+  </si>
+  <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>find by id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>loginButton</t>
-  </si>
-  <si>
-    <t>find by linktext</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>CreateUserButton</t>
-  </si>
-  <si>
-    <t>find by partial linktext</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>find by xpath</t>
-  </si>
-  <si>
-    <t>//span[@class='userNameSpan' and contains(text(),'Dowd, Roy (user)')]</t>
-  </si>
-  <si>
-    <t>userDataLightBox_firstNameField</t>
-  </si>
-  <si>
-    <t>logoutButton</t>
-  </si>
-  <si>
-    <t>closeUserDataLightBoxBtn</t>
-  </si>
-  <si>
-    <t>switchtowind</t>
-  </si>
-  <si>
-    <t>html/body/a</t>
-  </si>
-  <si>
-    <t>logoutLink</t>
-  </si>
-  <si>
-    <t>username in list</t>
-  </si>
-  <si>
-    <t>firstname text box</t>
-  </si>
-  <si>
-    <t>close pop up button</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>column-a</t>
-  </si>
-  <si>
-    <t>drag drop test</t>
-  </si>
-  <si>
-    <t>column-b</t>
+    <t>draggable</t>
+  </si>
+  <si>
+    <t>demo-frame</t>
+  </si>
+  <si>
+    <t>find by classname</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,18 +173,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -454,7 +471,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -466,7 +483,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -483,124 +500,128 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14">
@@ -611,6 +632,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="3375" windowWidth="15060" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14910" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="objectRepository" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Find By method</t>
   </si>
@@ -108,13 +108,16 @@
   </si>
   <si>
     <t>find by classname</t>
+  </si>
+  <si>
+    <t>framename</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,12 +147,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,9 +179,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -471,7 +465,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -581,10 +575,13 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="6" t="s">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -595,33 +592,38 @@
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="3"/>
+    </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3"/>
+    <row r="15" spans="1:3">
+      <c r="C15" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14">

--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Find By method</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>framename</t>
+  </si>
+  <si>
+    <t>E:\\sikulirepo\\notepadclick.PNG</t>
+  </si>
+  <si>
+    <t>E:\\sikulirepo\\ok.PNG</t>
+  </si>
+  <si>
+    <t>E:\sikulirepo\textfield.PNG</t>
   </si>
 </sst>
 </file>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -597,7 +606,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
@@ -622,7 +633,14 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -10,12 +10,11 @@
     <sheet name="objectRepository" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Find By method</t>
   </si>
@@ -98,9 +97,6 @@
     <t>column-b</t>
   </si>
   <si>
-    <t>pwd</t>
-  </si>
-  <si>
     <t>draggable</t>
   </si>
   <si>
@@ -120,6 +116,12 @@
   </si>
   <si>
     <t>E:\sikulirepo\textfield.PNG</t>
+  </si>
+  <si>
+    <t>p@@d</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -471,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -484,7 +486,7 @@
     <col min="3" max="3" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -495,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -503,10 +505,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -517,7 +522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -528,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -539,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -550,7 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -561,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -572,7 +577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -583,18 +588,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -605,12 +610,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -618,10 +623,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -632,14 +637,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Find By method</t>
   </si>
@@ -122,13 +122,25 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>E:\sikulirepo\url.PNG</t>
+  </si>
+  <si>
+    <t>E:\sikulirepo\notepad.PNG</t>
+  </si>
+  <si>
+    <t>fileToUpload</t>
+  </si>
+  <si>
+    <t>E:\\sikulirepo\\tetxfield.PNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +170,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +214,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -647,9 +668,32 @@
         <v>33</v>
       </c>
     </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14 B19">
       <formula1>"find by id,find by xpath,find by name,find by css,find by linktext,find by partial linktext,find by tagname"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B3">

--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Find By method</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>E:\\sikulirepo\\tetxfield.PNG</t>
+  </si>
+  <si>
+    <t>//button[@id='ext-gen23']</t>
+  </si>
+  <si>
+    <t>datepicker selecter</t>
+  </si>
+  <si>
+    <t>(//td[contains(@class,'x-date-active')]//span)[@@]</t>
+  </si>
+  <si>
+    <t>getcurrentdate</t>
   </si>
 </sst>
 </file>
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -505,6 +517,7 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="71.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -668,17 +681,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:4">
       <c r="C17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:4">
       <c r="C18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:4">
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -686,14 +699,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:4">
       <c r="C20" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14 B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14 B19 B21:B22">
       <formula1>"find by id,find by xpath,find by name,find by css,find by linktext,find by partial linktext,find by tagname"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B3">

--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14910" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19620" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="objectRepository" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Find By method</t>
   </si>
@@ -506,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -726,9 +727,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14 B19 B21:B22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14 B19 B21:B23">
       <formula1>"find by id,find by xpath,find by name,find by css,find by linktext,find by partial linktext,find by tagname"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B3">

--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -10,12 +10,11 @@
     <sheet name="objectRepository" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Find By method</t>
   </si>
@@ -147,6 +146,12 @@
   </si>
   <si>
     <t>getcurrentdate</t>
+  </si>
+  <si>
+    <t>ui-id-2</t>
+  </si>
+  <si>
+    <t>Open New Seprate Window</t>
   </si>
 </sst>
 </file>
@@ -180,7 +185,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -735,9 +740,25 @@
         <v>38</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14 B19 B21:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B2 B11 B4:B9 B13:B14 B19 B21:B25">
       <formula1>"find by id,find by xpath,find by name,find by css,find by linktext,find by partial linktext,find by tagname"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" sqref="B3">

--- a/mavenHybrid/webdriver/objectrepository.xlsx
+++ b/mavenHybrid/webdriver/objectrepository.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19620" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14880" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="objectRepository" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Find By method</t>
   </si>
@@ -25,111 +25,30 @@
     <t>Password</t>
   </si>
   <si>
-    <t>find by name</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
     <t>find by id</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>loginButton</t>
   </si>
   <si>
     <t>find by linktext</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>CreateUserButton</t>
-  </si>
-  <si>
-    <t>find by partial linktext</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>find by xpath</t>
   </si>
   <si>
-    <t>//span[@class='userNameSpan' and contains(text(),'Dowd, Roy (user)')]</t>
-  </si>
-  <si>
-    <t>userDataLightBox_firstNameField</t>
-  </si>
-  <si>
     <t>logoutButton</t>
   </si>
   <si>
-    <t>closeUserDataLightBoxBtn</t>
-  </si>
-  <si>
-    <t>switchtowind</t>
-  </si>
-  <si>
-    <t>html/body/a</t>
-  </si>
-  <si>
-    <t>logoutLink</t>
-  </si>
-  <si>
     <t>username in list</t>
   </si>
   <si>
-    <t>firstname text box</t>
-  </si>
-  <si>
-    <t>close pop up button</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>drag drop test</t>
-  </si>
-  <si>
-    <t>column-b</t>
-  </si>
-  <si>
-    <t>draggable</t>
-  </si>
-  <si>
-    <t>demo-frame</t>
-  </si>
-  <si>
-    <t>find by classname</t>
-  </si>
-  <si>
-    <t>framename</t>
-  </si>
-  <si>
-    <t>E:\\sikulirepo\\notepadclick.PNG</t>
-  </si>
-  <si>
-    <t>E:\\sikulirepo\\ok.PNG</t>
-  </si>
-  <si>
-    <t>E:\sikulirepo\textfield.PNG</t>
-  </si>
-  <si>
-    <t>p@@d</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>E:\sikulirepo\url.PNG</t>
-  </si>
-  <si>
-    <t>E:\sikulirepo\notepad.PNG</t>
-  </si>
-  <si>
     <t>fileToUpload</t>
   </si>
   <si>
@@ -152,12 +71,114 @@
   </si>
   <si>
     <t>Open New Seprate Window</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Pegasus Login</t>
+  </si>
+  <si>
+    <t>login page</t>
+  </si>
+  <si>
+    <t>loginname</t>
+  </si>
+  <si>
+    <t>//button[@class='btnnextgen btnnextgen-primary']</t>
+  </si>
+  <si>
+    <t>loginbutton</t>
+  </si>
+  <si>
+    <t>open course button</t>
+  </si>
+  <si>
+    <t>_ctl0__ctl0_phHeader__ctl0_ucs_Toolbar_ucs_Menubar_MenuBar__ctl2_lblDisplayText</t>
+  </si>
+  <si>
+    <t>inside course</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>widget close button</t>
+  </si>
+  <si>
+    <t>//*[@title='Close']</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>//div[@class='rightmenu']//div[.='Partha S']</t>
+  </si>
+  <si>
+    <t>logoutname</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>signout</t>
+  </si>
+  <si>
+    <t>Add materials button</t>
+  </si>
+  <si>
+    <t>//div[@class='CV_left LeftDivider']/div[2]</t>
+  </si>
+  <si>
+    <t>MCL</t>
+  </si>
+  <si>
+    <t>Add link</t>
+  </si>
+  <si>
+    <t>(//td[2]/div[@class='cssCreateRows cssRowPadding cssCursorPtr'])[6]</t>
+  </si>
+  <si>
+    <t>link name</t>
+  </si>
+  <si>
+    <t>txtURLTitle</t>
+  </si>
+  <si>
+    <t>URL field</t>
+  </si>
+  <si>
+    <t>txtURL</t>
+  </si>
+  <si>
+    <t>Add button</t>
+  </si>
+  <si>
+    <t>imgBtnSave_Update</t>
+  </si>
+  <si>
+    <t>CL drowdown button</t>
+  </si>
+  <si>
+    <t>//div[@id='wrapMenu']/ul/li//span[contains(text(),'Course Materials')]//following::a[1]/span</t>
+  </si>
+  <si>
+    <t>//*[@class='tdDisplayBlock']//div[contains(text(),'@@')]/following::button[@id='openbutton'][1]</t>
+  </si>
+  <si>
+    <t>courseid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -511,24 +532,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -536,224 +557,263 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
